--- a/Result/List.xlsx
+++ b/Result/List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_study\Selenium\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07ABCAA5-A286-4BAC-8AD7-37F1C7AF0FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4717DB1-30F7-46DE-A4C1-6E1821DCAA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25380" yWindow="2130" windowWidth="21600" windowHeight="11505" xr2:uid="{75B22889-0432-4817-A9E3-86FBEBFAA7E3}"/>
+    <workbookView xWindow="3495" yWindow="1380" windowWidth="21600" windowHeight="11505" xr2:uid="{EDB3CD6A-F251-496A-BCEB-ADEA57E75F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Results List" sheetId="2" r:id="rId1"/>
@@ -35,192 +35,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
-  <si>
-    <t>Усадьба</t>
-  </si>
-  <si>
-    <t>Кафе</t>
-  </si>
-  <si>
-    <t>Молодежная ул., 5-б</t>
-  </si>
-  <si>
-    <t>Открыто ⋅ Закроется в 01:00</t>
-  </si>
-  <si>
-    <t>Открыто</t>
-  </si>
-  <si>
-    <t>⋅ Закроется в 01:00</t>
-  </si>
-  <si>
-    <t>Бахус</t>
-  </si>
-  <si>
-    <t>ул. Энтузиастов, 24</t>
-  </si>
-  <si>
-    <t>Открыто ⋅ Закроется в 23:00</t>
-  </si>
-  <si>
-    <t>⋅ Закроется в 23:00</t>
-  </si>
-  <si>
-    <t>Ретро Кафе</t>
-  </si>
-  <si>
-    <t>Индустриальная ул., 12</t>
-  </si>
-  <si>
-    <t>Открыто ⋅ Закроется в 06:00 (чт)</t>
-  </si>
-  <si>
-    <t>⋅ Закроется в 06:00 (чт)</t>
-  </si>
-  <si>
-    <t>Grand Кафе</t>
-  </si>
-  <si>
-    <t>Ресторан</t>
-  </si>
-  <si>
-    <t>пр. Курчатова, 4а</t>
-  </si>
-  <si>
-    <t>Открыто ⋅ Закроется в 00:00</t>
-  </si>
-  <si>
-    <t>⋅ Закроется в 00:00</t>
-  </si>
-  <si>
-    <t>Крепость</t>
-  </si>
-  <si>
-    <t>пр. Мира, 44</t>
-  </si>
-  <si>
-    <t>Открыто ⋅ Закроется в 02:00</t>
-  </si>
-  <si>
-    <t>⋅ Закроется в 02:00</t>
-  </si>
-  <si>
-    <t>Старая мельница</t>
-  </si>
-  <si>
-    <t>пер. Пушкина, 1</t>
-  </si>
-  <si>
-    <t>Кафе "Тихий Дон"</t>
-  </si>
-  <si>
-    <t>ул. Степная, 73</t>
-  </si>
-  <si>
-    <t>Старый Рояль</t>
-  </si>
-  <si>
-    <t>ул. Ленина, 5</t>
-  </si>
-  <si>
-    <t>Шашлычный Мир</t>
-  </si>
-  <si>
-    <t>ул. Энтузиастов, 43б</t>
-  </si>
-  <si>
-    <t>Скоро закроется: 19:40 ⋅ Откроется в 10:00 (чт)</t>
-  </si>
-  <si>
-    <t>Скоро закроется:</t>
-  </si>
-  <si>
-    <t>19:40 ⋅ Откроется в 10:00 (чт)</t>
-  </si>
-  <si>
-    <t>La-Dolce-Vita</t>
-  </si>
-  <si>
-    <t>Морская ул., 25</t>
-  </si>
-  <si>
-    <t>Балкон</t>
-  </si>
-  <si>
-    <t>Весенняя ул., 56</t>
-  </si>
-  <si>
-    <t>Открыто ⋅ Закроется в 22:00</t>
-  </si>
-  <si>
-    <t>⋅ Закроется в 22:00</t>
-  </si>
-  <si>
-    <t>ТОЧКА.RU</t>
-  </si>
-  <si>
-    <t>ул. Энтузиастов, 11</t>
-  </si>
-  <si>
-    <t>Кафе Замок</t>
-  </si>
-  <si>
-    <t>Весенняя ул., 46а</t>
-  </si>
-  <si>
-    <t>Кумпель</t>
-  </si>
-  <si>
-    <t>8-ая Заводская ул.</t>
-  </si>
-  <si>
-    <t>Открыто ⋅ Закроется в 21:00</t>
-  </si>
-  <si>
-    <t>⋅ Закроется в 21:00</t>
-  </si>
-  <si>
-    <t>Massons</t>
-  </si>
-  <si>
-    <t>ул. Маршала Кошевого, 31</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+  <si>
+    <t>Круглосуточно</t>
+  </si>
+  <si>
+    <t>Йосемити</t>
+  </si>
+  <si>
+    <t>Национальный парк</t>
+  </si>
+  <si>
+    <t>Идеальное место для активного отдыха</t>
+  </si>
+  <si>
+    <t>Йеллоустон</t>
   </si>
   <si>
     <t>Временно закрыто</t>
   </si>
   <si>
-    <t>Империал</t>
-  </si>
-  <si>
-    <t>ул. Маршала Кошевого, 42</t>
-  </si>
-  <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t>б-р Великой Победы, 47А</t>
-  </si>
-  <si>
-    <t>Круглосуточно</t>
-  </si>
-  <si>
-    <t>Resto House</t>
-  </si>
-  <si>
-    <t>ул. Энтузиастов, 9б</t>
-  </si>
-  <si>
-    <t>Чебуречная Ретро</t>
-  </si>
-  <si>
-    <t>пр. Строителей, 12а</t>
-  </si>
-  <si>
-    <t>Кафе Подкова</t>
-  </si>
-  <si>
-    <t>ул. Ленина, 121</t>
+    <t>Национальный парк Гранд Каньон</t>
+  </si>
+  <si>
+    <t>Глубокий каньон с живописными видами</t>
+  </si>
+  <si>
+    <t>Олимпик</t>
+  </si>
+  <si>
+    <t>3002 Mt Angeles Rd</t>
+  </si>
+  <si>
+    <t>Горы, дождевые леса и скалистые берега</t>
+  </si>
+  <si>
+    <t>национальный парк Глейшер</t>
+  </si>
+  <si>
+    <t>Заповедник с более чем 1000 км троп</t>
+  </si>
+  <si>
+    <t>Сейчас открыто</t>
+  </si>
+  <si>
+    <t>Бэдлендс</t>
+  </si>
+  <si>
+    <t>Горные образования и дикая природа</t>
+  </si>
+  <si>
+    <t>Национальный парк Пинаклс</t>
+  </si>
+  <si>
+    <t>Парк с пещерами и скалами</t>
+  </si>
+  <si>
+    <t>Маунт-Рейнир</t>
+  </si>
+  <si>
+    <t>Активный вулкан, ледники и луга</t>
+  </si>
+  <si>
+    <t>Национальный парк Секвойя</t>
+  </si>
+  <si>
+    <t>Огромные деревья, пеший туризм и кемпинг</t>
+  </si>
+  <si>
+    <t>Парк Грэйт Фолс</t>
+  </si>
+  <si>
+    <t>9200 Old Dominion Dr</t>
+  </si>
+  <si>
+    <t>Роки-Маунтин</t>
+  </si>
+  <si>
+    <t>Национальный парк с живописными горами</t>
+  </si>
+  <si>
+    <t>Джошуа-Три</t>
+  </si>
+  <si>
+    <t>Парк в пустыне с необычными скалами</t>
+  </si>
+  <si>
+    <t>Брайс-Каньон</t>
+  </si>
+  <si>
+    <t>Природный амфитеатр и столбы худу</t>
+  </si>
+  <si>
+    <t>Сагуаро</t>
+  </si>
+  <si>
+    <t>Пешие прогулки и пикники среди кактусов</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 09:00 (пт)</t>
+  </si>
+  <si>
+    <t>Закрыто</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 09:00 (пт)</t>
+  </si>
+  <si>
+    <t>Парк штата Ниагара-Фолс</t>
+  </si>
+  <si>
+    <t>Парк</t>
+  </si>
+  <si>
+    <t>332 Prospect St</t>
+  </si>
+  <si>
+    <t>Живописный парк с водопадами</t>
+  </si>
+  <si>
+    <t>Редвуд</t>
+  </si>
+  <si>
+    <t>Большой секвойный лес</t>
+  </si>
+  <si>
+    <t>Национальный парк Арчес</t>
+  </si>
+  <si>
+    <t>Походы и кемпинг среди красных скал</t>
+  </si>
+  <si>
+    <t>Национальный парк Долина Смерти</t>
+  </si>
+  <si>
+    <t>Парк площадью больше миллиона гектаров</t>
+  </si>
+  <si>
+    <t>Каньонлендс</t>
+  </si>
+  <si>
+    <t>Живописное место с четырьмя областями</t>
+  </si>
+  <si>
+    <t>Национальный заказник Денали</t>
+  </si>
+  <si>
+    <t>Parks Hwy</t>
+  </si>
+  <si>
+    <t>Парк дикой природы, гора Денали</t>
   </si>
 </sst>
 </file>
@@ -571,399 +535,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032A4ACB-EB56-492E-851D-1D485980FE3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D03AA9-6C38-46BA-ADBD-D2B048246F04}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D26AD7-5610-4745-AE78-543DA780FE59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3534D0E-542C-4BD6-A53C-559BEFAC65E8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Result/List.xlsx
+++ b/Result/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming_study\Selenium\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4717DB1-30F7-46DE-A4C1-6E1821DCAA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7816F5D-B157-4A66-8B2D-F6179F61867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3495" yWindow="1380" windowWidth="21600" windowHeight="11505" xr2:uid="{EDB3CD6A-F251-496A-BCEB-ADEA57E75F2F}"/>
   </bookViews>
@@ -35,156 +35,1065 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="353">
+  <si>
+    <t>Временно закрыто</t>
+  </si>
+  <si>
+    <t>Закрыто</t>
+  </si>
+  <si>
+    <t>Открыто</t>
+  </si>
+  <si>
+    <t>Скоро закроется:</t>
+  </si>
+  <si>
+    <t>Усадьба</t>
+  </si>
+  <si>
+    <t>Кафе</t>
+  </si>
+  <si>
+    <t>Молодежная ул., 5-б</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 24</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 10:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 10:00</t>
+  </si>
+  <si>
+    <t>Ресторан</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 11:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 11:00</t>
+  </si>
+  <si>
+    <t>Весенняя ул., 56</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 08:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 08:00</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 09:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 09:00</t>
+  </si>
+  <si>
+    <t>Кофейня «Fellini»</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 17/15</t>
+  </si>
+  <si>
+    <t>Ресторанный комплекс Рандеву</t>
+  </si>
+  <si>
+    <t>пр. Курчатова, 47/1</t>
+  </si>
+  <si>
+    <t>Открыто ⋅ Закроется в 03:00 ⋅ Снова откроется в 12:00</t>
+  </si>
+  <si>
+    <t>⋅ Закроется в 03:00 ⋅ Снова откроется в 12:00</t>
+  </si>
+  <si>
+    <t>Ретро Чебуречная</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 30</t>
+  </si>
+  <si>
+    <t>Бакчар, Закусочная</t>
+  </si>
+  <si>
+    <t>ул. Степная, 10-а</t>
+  </si>
+  <si>
+    <t>Минипиццерия Pizza da mamma</t>
+  </si>
+  <si>
+    <t>ул. Карла Маркса, 21</t>
+  </si>
+  <si>
+    <t>Бар</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 12:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 12:00</t>
+  </si>
+  <si>
+    <t>Суши</t>
+  </si>
+  <si>
+    <t>ул. Черникова, 17</t>
+  </si>
+  <si>
+    <t>Republic Burgers</t>
+  </si>
+  <si>
+    <t>б-р Великой Победы, 1</t>
+  </si>
+  <si>
+    <t>пр. Курчатова, 1е</t>
+  </si>
+  <si>
+    <t>Гвоздика</t>
+  </si>
+  <si>
+    <t>Столовая</t>
+  </si>
+  <si>
+    <t>Мангольд</t>
+  </si>
+  <si>
+    <t>б-р Великой Победы, 45</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 09:45</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 09:45</t>
+  </si>
+  <si>
+    <t>Закусочная</t>
+  </si>
+  <si>
+    <t>пр. Строителей, 47</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 07:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 07:00</t>
+  </si>
+  <si>
+    <t>Березка, Бар</t>
+  </si>
+  <si>
+    <t>ул. 30 лет Победы, 22</t>
+  </si>
+  <si>
+    <t>Чудо-барчик, Бар</t>
+  </si>
+  <si>
+    <t>ул. Карла Маркса, 30</t>
+  </si>
+  <si>
+    <t>Столовая Номер 26</t>
+  </si>
+  <si>
+    <t>Бургер Кинг</t>
+  </si>
+  <si>
+    <t>Американская кухня</t>
+  </si>
+  <si>
+    <t>Сеть ресторанов с бургерами на гриле</t>
+  </si>
+  <si>
+    <t>Суши-бар «Ниппон»</t>
+  </si>
+  <si>
+    <t>Доставка готовой еды</t>
+  </si>
+  <si>
+    <t>Суши Тайм Волгодонск</t>
+  </si>
+  <si>
+    <t>ул. Ленинградская, 3 ж</t>
+  </si>
+  <si>
+    <t>Еда на вынос</t>
+  </si>
+  <si>
+    <t>Sushi Box</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 108</t>
+  </si>
+  <si>
+    <t>Суши Love</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 19А</t>
+  </si>
+  <si>
+    <t>ШАШЛЫК МАРКЕТ</t>
+  </si>
+  <si>
+    <t>пр. Строителей, 20г</t>
+  </si>
+  <si>
+    <t>ул. 30 лет Победы, 33</t>
+  </si>
+  <si>
+    <t>Ромашка, Кафетерий</t>
+  </si>
+  <si>
+    <t>Ресторан или кафе</t>
+  </si>
+  <si>
+    <t>SUSHI BOX</t>
+  </si>
+  <si>
+    <t>SUSHI TO GO</t>
+  </si>
+  <si>
+    <t>Артемида, Бар</t>
+  </si>
+  <si>
+    <t>Кафе Аппетит</t>
+  </si>
+  <si>
+    <t>ул. Гагарина, 59а</t>
+  </si>
+  <si>
+    <t>ул. Максима Горького, 9</t>
+  </si>
+  <si>
+    <t>Автомойка И Кафе "Ромашка"</t>
+  </si>
+  <si>
+    <t>Cуши на вынос</t>
+  </si>
+  <si>
+    <t>Морская ул., 15 Е</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 08:00 (пн)</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 08:00 (пн)</t>
+  </si>
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
+    <t>Октябрьский пер., 38</t>
+  </si>
+  <si>
+    <t>Шаверма Разбуди аппетит</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 20</t>
+  </si>
+  <si>
+    <t>Coffee in - кофе с собой</t>
+  </si>
+  <si>
+    <t>Кофе с собой</t>
+  </si>
+  <si>
+    <t>Блины Шаурма</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 51</t>
+  </si>
+  <si>
+    <t>Кумпель</t>
+  </si>
+  <si>
+    <t>8-ая Заводская ул.</t>
+  </si>
+  <si>
+    <t>Шашлык</t>
+  </si>
+  <si>
+    <t>Романовское ш.</t>
+  </si>
+  <si>
+    <t>Бахус</t>
+  </si>
+  <si>
+    <t>Grand Кафе</t>
+  </si>
+  <si>
+    <t>пр. Курчатова, 4а</t>
+  </si>
+  <si>
+    <t>Кафе "Тихий Дон"</t>
+  </si>
+  <si>
+    <t>ул. Степная, 73</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 07:30 (пн)</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 07:30 (пн)</t>
+  </si>
+  <si>
+    <t>Старая мельница</t>
+  </si>
+  <si>
+    <t>пер. Пушкина, 1</t>
+  </si>
+  <si>
+    <t>Старый Рояль</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 5</t>
+  </si>
+  <si>
+    <t>Шашлычный Мир</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 43б</t>
+  </si>
+  <si>
+    <t>La-Dolce-Vita</t>
+  </si>
+  <si>
+    <t>Морская ул., 25</t>
+  </si>
+  <si>
+    <t>Балкон</t>
+  </si>
+  <si>
+    <t>ТОЧКА.RU</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 11</t>
+  </si>
+  <si>
+    <t>Кафе Замок</t>
+  </si>
+  <si>
+    <t>Весенняя ул., 46а</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>б-р Великой Победы, 47А</t>
+  </si>
   <si>
     <t>Круглосуточно</t>
   </si>
   <si>
-    <t>Йосемити</t>
-  </si>
-  <si>
-    <t>Национальный парк</t>
-  </si>
-  <si>
-    <t>Идеальное место для активного отдыха</t>
-  </si>
-  <si>
-    <t>Йеллоустон</t>
-  </si>
-  <si>
-    <t>Временно закрыто</t>
-  </si>
-  <si>
-    <t>Национальный парк Гранд Каньон</t>
-  </si>
-  <si>
-    <t>Глубокий каньон с живописными видами</t>
-  </si>
-  <si>
-    <t>Олимпик</t>
-  </si>
-  <si>
-    <t>3002 Mt Angeles Rd</t>
-  </si>
-  <si>
-    <t>Горы, дождевые леса и скалистые берега</t>
-  </si>
-  <si>
-    <t>национальный парк Глейшер</t>
-  </si>
-  <si>
-    <t>Заповедник с более чем 1000 км троп</t>
-  </si>
-  <si>
-    <t>Сейчас открыто</t>
-  </si>
-  <si>
-    <t>Бэдлендс</t>
-  </si>
-  <si>
-    <t>Горные образования и дикая природа</t>
-  </si>
-  <si>
-    <t>Национальный парк Пинаклс</t>
-  </si>
-  <si>
-    <t>Парк с пещерами и скалами</t>
-  </si>
-  <si>
-    <t>Маунт-Рейнир</t>
-  </si>
-  <si>
-    <t>Активный вулкан, ледники и луга</t>
-  </si>
-  <si>
-    <t>Национальный парк Секвойя</t>
-  </si>
-  <si>
-    <t>Огромные деревья, пеший туризм и кемпинг</t>
-  </si>
-  <si>
-    <t>Парк Грэйт Фолс</t>
-  </si>
-  <si>
-    <t>9200 Old Dominion Dr</t>
-  </si>
-  <si>
-    <t>Роки-Маунтин</t>
-  </si>
-  <si>
-    <t>Национальный парк с живописными горами</t>
-  </si>
-  <si>
-    <t>Джошуа-Три</t>
-  </si>
-  <si>
-    <t>Парк в пустыне с необычными скалами</t>
-  </si>
-  <si>
-    <t>Брайс-Каньон</t>
-  </si>
-  <si>
-    <t>Природный амфитеатр и столбы худу</t>
-  </si>
-  <si>
-    <t>Сагуаро</t>
-  </si>
-  <si>
-    <t>Пешие прогулки и пикники среди кактусов</t>
-  </si>
-  <si>
-    <t>Закрыто ⋅ Откроется в 09:00 (пт)</t>
-  </si>
-  <si>
-    <t>Закрыто</t>
-  </si>
-  <si>
-    <t>⋅ Откроется в 09:00 (пт)</t>
-  </si>
-  <si>
-    <t>Парк штата Ниагара-Фолс</t>
+    <t>Resto House</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 9б</t>
+  </si>
+  <si>
+    <t>Чебуречная Ретро</t>
+  </si>
+  <si>
+    <t>пр. Строителей, 12а</t>
+  </si>
+  <si>
+    <t>Кафе Подкова</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 121</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 14:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 14:00</t>
+  </si>
+  <si>
+    <t>Камин</t>
+  </si>
+  <si>
+    <t>Пиццерия</t>
+  </si>
+  <si>
+    <t>Кафе-бар Вояж</t>
+  </si>
+  <si>
+    <t>ул. Черникова</t>
+  </si>
+  <si>
+    <t>Бакчар</t>
+  </si>
+  <si>
+    <t>Хычины Шашлык</t>
+  </si>
+  <si>
+    <t>ул. Степная, 120</t>
+  </si>
+  <si>
+    <t>Жёлтый Слон</t>
+  </si>
+  <si>
+    <t>б-р Великой Победы, 2</t>
+  </si>
+  <si>
+    <t>Кофейня</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 09:30</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 09:30</t>
+  </si>
+  <si>
+    <t>Экспресс Пицца</t>
+  </si>
+  <si>
+    <t>Ресторан-пивоварня</t>
+  </si>
+  <si>
+    <t>Шашлычный двор</t>
+  </si>
+  <si>
+    <t>Закуски</t>
+  </si>
+  <si>
+    <t>2-я Бетонная ул., 12</t>
+  </si>
+  <si>
+    <t>Шаурма Чай Кофе Напитки З</t>
+  </si>
+  <si>
+    <t>пр. Строителей, 15</t>
+  </si>
+  <si>
+    <t>Арт-Кафе</t>
+  </si>
+  <si>
+    <t>Пирожковая</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 105</t>
+  </si>
+  <si>
+    <t>Чешка</t>
+  </si>
+  <si>
+    <t>ул. Черникова, 4а</t>
+  </si>
+  <si>
+    <t>I-FOOD</t>
+  </si>
+  <si>
+    <t>Бистро</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 17, корп.15</t>
+  </si>
+  <si>
+    <t>Старый Арбат</t>
+  </si>
+  <si>
+    <t>Ноябрьский пер., 30А</t>
+  </si>
+  <si>
+    <t>Клюква</t>
+  </si>
+  <si>
+    <t>Кофемолка</t>
+  </si>
+  <si>
+    <t>Западный пер., 4Б</t>
+  </si>
+  <si>
+    <t>Солнышко, Кафе</t>
+  </si>
+  <si>
+    <t>ул. Максима Горького, 77</t>
+  </si>
+  <si>
+    <t>Кафе Гарант-сервис</t>
+  </si>
+  <si>
+    <t>ул. Степная, 12б</t>
+  </si>
+  <si>
+    <t>Ешьсуши</t>
+  </si>
+  <si>
+    <t>ул. Черникова, д. 17</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Морская ул.</t>
+  </si>
+  <si>
+    <t>Кафе Мята</t>
+  </si>
+  <si>
+    <t>ул. Ленинградская, 3ж</t>
+  </si>
+  <si>
+    <t>Foodmarket Teplo</t>
+  </si>
+  <si>
+    <t>ул. Гагарина, 10</t>
+  </si>
+  <si>
+    <t>WOK BOX</t>
+  </si>
+  <si>
+    <t>пр. Строителей, 31</t>
+  </si>
+  <si>
+    <t>Чебуречная</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 31</t>
+  </si>
+  <si>
+    <t>hot stop</t>
+  </si>
+  <si>
+    <t>Морская ул., 90</t>
+  </si>
+  <si>
+    <t>Это Coffee</t>
+  </si>
+  <si>
+    <t>Пражская Пивоварня</t>
+  </si>
+  <si>
+    <t>ул. Степная, 137</t>
+  </si>
+  <si>
+    <t>Чайный бутик</t>
+  </si>
+  <si>
+    <t>Чайхана</t>
+  </si>
+  <si>
+    <t>Рынок Олимп, б-р Великой Победы</t>
+  </si>
+  <si>
+    <t>RitTo'ri</t>
+  </si>
+  <si>
+    <t>ул. 30 лет Победы, 18</t>
+  </si>
+  <si>
+    <t>Ням-Ням</t>
+  </si>
+  <si>
+    <t>фастфуд</t>
+  </si>
+  <si>
+    <t>Caramel</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 100</t>
+  </si>
+  <si>
+    <t>Алые Паруса</t>
+  </si>
+  <si>
+    <t>Портовая ул., 2а</t>
+  </si>
+  <si>
+    <t>Лайк Пицца</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 11Б</t>
+  </si>
+  <si>
+    <t>Восточный Базар</t>
+  </si>
+  <si>
+    <t>ул. Маршала Кошевого, 18</t>
+  </si>
+  <si>
+    <t>Охотничий Клуб</t>
+  </si>
+  <si>
+    <t>ул. Гагарина, 22Д</t>
+  </si>
+  <si>
+    <t>Кафетерий</t>
+  </si>
+  <si>
+    <t>ул. Степная</t>
+  </si>
+  <si>
+    <t>Морская ул., 15Е</t>
+  </si>
+  <si>
+    <t>Шаурмен</t>
+  </si>
+  <si>
+    <t>Ресторан (шаурма)</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов</t>
+  </si>
+  <si>
+    <t>Золотой Гусь</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 9Б</t>
+  </si>
+  <si>
+    <t>Балаган</t>
+  </si>
+  <si>
+    <t>пр. Курчатова, 47</t>
+  </si>
+  <si>
+    <t>Закусочная По Пути</t>
+  </si>
+  <si>
+    <t>пер. Маяковского</t>
+  </si>
+  <si>
+    <t>Гурман___hause</t>
+  </si>
+  <si>
+    <t>Крепость</t>
+  </si>
+  <si>
+    <t>пр. Мира, 44</t>
+  </si>
+  <si>
+    <t>Корона, Бар</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 56</t>
+  </si>
+  <si>
+    <t>Блины шаурма Смирнов</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 48</t>
+  </si>
+  <si>
+    <t>ГАРАЖ</t>
+  </si>
+  <si>
+    <t>Спорт-бар</t>
+  </si>
+  <si>
+    <t>ул. Степная, 100в</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 18:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 18:00</t>
+  </si>
+  <si>
+    <t>А-кафе</t>
+  </si>
+  <si>
+    <t>Korean Shop</t>
+  </si>
+  <si>
+    <t>BestBurger</t>
+  </si>
+  <si>
+    <t>ул. Маршала Кошевого, 18 Справа от центрального входа</t>
+  </si>
+  <si>
+    <t>Скорпион</t>
+  </si>
+  <si>
+    <t>Чешка Частная Пивоварня</t>
+  </si>
+  <si>
+    <t>ул. Черникова, 3</t>
+  </si>
+  <si>
+    <t>Суши mix</t>
+  </si>
+  <si>
+    <t>Суши Во</t>
+  </si>
+  <si>
+    <t>Aik</t>
+  </si>
+  <si>
+    <t>пр. Строителей, 7</t>
+  </si>
+  <si>
+    <t>Блин</t>
+  </si>
+  <si>
+    <t>Ланчбокс</t>
+  </si>
+  <si>
+    <t>Пицца Ross</t>
+  </si>
+  <si>
+    <t>Про Брунч</t>
+  </si>
+  <si>
+    <t>Еда и напитки</t>
+  </si>
+  <si>
+    <t>ул. Ленинградская, 3</t>
+  </si>
+  <si>
+    <t>Империал</t>
+  </si>
+  <si>
+    <t>ул. Маршала Кошевого, 42</t>
+  </si>
+  <si>
+    <t>Филин Кофе</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 9А</t>
+  </si>
+  <si>
+    <t>ТриКита суши и роллы</t>
+  </si>
+  <si>
+    <t>Ресторан "Семейный"</t>
+  </si>
+  <si>
+    <t>Складская ул., 3а</t>
+  </si>
+  <si>
+    <t>Massons</t>
+  </si>
+  <si>
+    <t>ул. Маршала Кошевого, 31</t>
+  </si>
+  <si>
+    <t>Домашняя Кухня</t>
+  </si>
+  <si>
+    <t>Молодежная ул., 20</t>
+  </si>
+  <si>
+    <t>Автомойка</t>
+  </si>
+  <si>
+    <t>Торговый центр</t>
+  </si>
+  <si>
+    <t>El Coyote</t>
+  </si>
+  <si>
+    <t>Гаражная ул., 27</t>
+  </si>
+  <si>
+    <t>ПКиО Победа</t>
   </si>
   <si>
     <t>Парк</t>
   </si>
   <si>
-    <t>332 Prospect St</t>
-  </si>
-  <si>
-    <t>Живописный парк с водопадами</t>
-  </si>
-  <si>
-    <t>Редвуд</t>
-  </si>
-  <si>
-    <t>Большой секвойный лес</t>
-  </si>
-  <si>
-    <t>Национальный парк Арчес</t>
-  </si>
-  <si>
-    <t>Походы и кемпинг среди красных скал</t>
-  </si>
-  <si>
-    <t>Национальный парк Долина Смерти</t>
-  </si>
-  <si>
-    <t>Парк площадью больше миллиона гектаров</t>
-  </si>
-  <si>
-    <t>Каньонлендс</t>
-  </si>
-  <si>
-    <t>Живописное место с четырьмя областями</t>
-  </si>
-  <si>
-    <t>Национальный заказник Денали</t>
-  </si>
-  <si>
-    <t>Parks Hwy</t>
-  </si>
-  <si>
-    <t>Парк дикой природы, гора Денали</t>
+    <t>BeerBurger</t>
+  </si>
+  <si>
+    <t>пр. Мира, 2а</t>
+  </si>
+  <si>
+    <t>Золотой колос</t>
+  </si>
+  <si>
+    <t>Выпечка</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 90</t>
+  </si>
+  <si>
+    <t>БАР КАНЦЛЕР</t>
+  </si>
+  <si>
+    <t>ул. Маршала Кошевого, 25</t>
+  </si>
+  <si>
+    <t>Ковчег</t>
+  </si>
+  <si>
+    <t>3 звезды</t>
+  </si>
+  <si>
+    <t>Ням ням</t>
+  </si>
+  <si>
+    <t>Индустриальная ул.</t>
+  </si>
+  <si>
+    <t>Отель “Арт сити”</t>
+  </si>
+  <si>
+    <t>4 звезды</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 52 А</t>
+  </si>
+  <si>
+    <t>Спокойный отель с простым рестораном</t>
+  </si>
+  <si>
+    <t>Слоеная выпечка</t>
+  </si>
+  <si>
+    <t>2-я Бетонная ул.</t>
+  </si>
+  <si>
+    <t>Beauty Cafe</t>
+  </si>
+  <si>
+    <t>Салон красоты</t>
+  </si>
+  <si>
+    <t>пр. Мира, 7А</t>
+  </si>
+  <si>
+    <t>Суши Шеф</t>
+  </si>
+  <si>
+    <t>ул. Гагарина, 66а</t>
+  </si>
+  <si>
+    <t>Автоклуб</t>
+  </si>
+  <si>
+    <t>Ремонт и обслуживание автомобилей</t>
+  </si>
+  <si>
+    <t>Енисей, Магазин</t>
+  </si>
+  <si>
+    <t>Продовольственный магазин</t>
+  </si>
+  <si>
+    <t>Венеция</t>
+  </si>
+  <si>
+    <t>Западный пер., 2а</t>
+  </si>
+  <si>
+    <t>ООО "Фортуна"</t>
+  </si>
+  <si>
+    <t>Весенняя ул., 12</t>
+  </si>
+  <si>
+    <t>Скоро закроется: 02:00 ⋅ Откроется снова в 12:30</t>
+  </si>
+  <si>
+    <t>02:00 ⋅ Откроется снова в 12:30</t>
+  </si>
+  <si>
+    <t>Скоро закроется: 02:00 ⋅ Откроется снова в 11:00</t>
+  </si>
+  <si>
+    <t>02:00 ⋅ Откроется снова в 11:00</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 49</t>
+  </si>
+  <si>
+    <t>Кофе*IN</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 110</t>
+  </si>
+  <si>
+    <t>Мюнхен</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 89</t>
+  </si>
+  <si>
+    <t>Скоро закроется: 02:00 ⋅ Откроется снова в 12:00</t>
+  </si>
+  <si>
+    <t>02:00 ⋅ Откроется снова в 12:00</t>
+  </si>
+  <si>
+    <t>Пражский</t>
+  </si>
+  <si>
+    <t>ул. Ленинградская, 3 б</t>
+  </si>
+  <si>
+    <t>Гинза Touch</t>
+  </si>
+  <si>
+    <t>пр. Строителей, 2б</t>
+  </si>
+  <si>
+    <t>Астерия, Кафе</t>
+  </si>
+  <si>
+    <t>Весенняя ул., 46-а</t>
+  </si>
+  <si>
+    <t>ГРИЛЬ БАР</t>
+  </si>
+  <si>
+    <t>ул. Энтузиастов, 22</t>
+  </si>
+  <si>
+    <t>Гинза Tree</t>
+  </si>
+  <si>
+    <t>Японская кухня</t>
+  </si>
+  <si>
+    <t>ул. Думенко, 2</t>
+  </si>
+  <si>
+    <t>Ермак</t>
+  </si>
+  <si>
+    <t>Первомайский пер., 2-а</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 43/2</t>
+  </si>
+  <si>
+    <t>Гинза"Данил"</t>
+  </si>
+  <si>
+    <t>Гинза 6</t>
+  </si>
+  <si>
+    <t>пр. Курчатова, 12</t>
+  </si>
+  <si>
+    <t>Донская ночь</t>
+  </si>
+  <si>
+    <t>Летняя площадка Курчатого</t>
+  </si>
+  <si>
+    <t>пр. Курчатова, 20а</t>
+  </si>
+  <si>
+    <t>Скоро закроется: 02:00 ⋅ Откроется снова в 17:00</t>
+  </si>
+  <si>
+    <t>02:00 ⋅ Откроется снова в 17:00</t>
+  </si>
+  <si>
+    <t>Фрешвок</t>
+  </si>
+  <si>
+    <t>Морская ул., 29</t>
+  </si>
+  <si>
+    <t>пр. Курчатова, 48</t>
+  </si>
+  <si>
+    <t>Скоро закроется: 02:00 ⋅ Откроется снова в 08:00</t>
+  </si>
+  <si>
+    <t>02:00 ⋅ Откроется снова в 08:00</t>
+  </si>
+  <si>
+    <t>ул. Ленина, 52А</t>
+  </si>
+  <si>
+    <t>Мята Lounge Волгодонск</t>
+  </si>
+  <si>
+    <t>Кальянная</t>
+  </si>
+  <si>
+    <t>Морская ул., 102а</t>
+  </si>
+  <si>
+    <t>Открыто ⋅ Закроется в 03:00 ⋅ Снова откроется в 15:00</t>
+  </si>
+  <si>
+    <t>⋅ Закроется в 03:00 ⋅ Снова откроется в 15:00</t>
+  </si>
+  <si>
+    <t>Золотой чебурек</t>
+  </si>
+  <si>
+    <t>Суши шеф</t>
+  </si>
+  <si>
+    <t>ул. Степная, 163</t>
+  </si>
+  <si>
+    <t>Пятый километр</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 06:30</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 06:30</t>
+  </si>
+  <si>
+    <t>Ёбидоёби</t>
+  </si>
+  <si>
+    <t>ул. Черникова, 4г</t>
+  </si>
+  <si>
+    <t>Суши Wok</t>
+  </si>
+  <si>
+    <t>Антикафе Точка | Прокат велосипедов |</t>
+  </si>
+  <si>
+    <t>Прокат велосипедов</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Боулинг</t>
+  </si>
+  <si>
+    <t>пр. Курчатова, 36Г</t>
+  </si>
+  <si>
+    <t>Закрыто ⋅ Откроется в 13:00</t>
+  </si>
+  <si>
+    <t>⋅ Откроется в 13:00</t>
+  </si>
+  <si>
+    <t>Ретро Кафе</t>
+  </si>
+  <si>
+    <t>Индустриальная ул., 12</t>
+  </si>
+  <si>
+    <t>Открыто ⋅ Закроется в 06:00 ⋅ Снова откроется в 08:00</t>
+  </si>
+  <si>
+    <t>⋅ Закроется в 06:00 ⋅ Снова откроется в 08:00</t>
+  </si>
+  <si>
+    <t>Кофе И Молоко</t>
+  </si>
+  <si>
+    <t>Все Для Суши И Роллов</t>
+  </si>
+  <si>
+    <t>ул. Черникова, 4в</t>
+  </si>
+  <si>
+    <t>ТРЦ Весенний</t>
+  </si>
+  <si>
+    <t>Куры Гриль</t>
+  </si>
+  <si>
+    <t>Курица-гриль</t>
+  </si>
+  <si>
+    <t>ул. Академика Королева, 2б</t>
   </si>
 </sst>
 </file>
@@ -536,14 +1445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D03AA9-6C38-46BA-ADBD-D2B048246F04}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="49.5703125" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
@@ -552,273 +1463,2478 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>282</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>284</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" t="s">
+        <v>313</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" t="s">
+        <v>291</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
+        <v>318</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" t="s">
+        <v>216</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>241</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>74</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>321</v>
+      </c>
+      <c r="B120" t="s">
+        <v>322</v>
+      </c>
+      <c r="C120" t="s">
+        <v>323</v>
+      </c>
+      <c r="D120" t="s">
+        <v>324</v>
+      </c>
+      <c r="E120" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F120" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" t="s">
+        <v>328</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>330</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>332</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>333</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" t="s">
+        <v>336</v>
+      </c>
+      <c r="C126" t="s">
+        <v>245</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>337</v>
+      </c>
+      <c r="B127" t="s">
+        <v>338</v>
+      </c>
+      <c r="C127" t="s">
+        <v>339</v>
+      </c>
+      <c r="D127" t="s">
+        <v>340</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>342</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" t="s">
+        <v>344</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>346</v>
+      </c>
+      <c r="B129" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>347</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>349</v>
+      </c>
+      <c r="B131" t="s">
+        <v>247</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>350</v>
+      </c>
+      <c r="B132" t="s">
+        <v>351</v>
+      </c>
+      <c r="C132" t="s">
+        <v>352</v>
+      </c>
+      <c r="D132" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>89</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>90</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>249</v>
+      </c>
+      <c r="D135" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" t="s">
+        <v>251</v>
+      </c>
+      <c r="C136" t="s">
+        <v>157</v>
+      </c>
+      <c r="D136" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>253</v>
+      </c>
+      <c r="D137" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" t="s">
+        <v>256</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>257</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>258</v>
+      </c>
+      <c r="D139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" t="s">
+        <v>264</v>
+      </c>
+      <c r="C142" t="s">
+        <v>265</v>
+      </c>
+      <c r="D142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>269</v>
+      </c>
+      <c r="B144" t="s">
+        <v>270</v>
+      </c>
+      <c r="C144" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>272</v>
+      </c>
+      <c r="B145" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" t="s">
+        <v>273</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>274</v>
+      </c>
+      <c r="B146" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147" t="s">
+        <v>181</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>278</v>
+      </c>
+      <c r="B148" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" t="s">
+        <v>279</v>
+      </c>
+      <c r="D148" t="s">
+        <v>291</v>
+      </c>
+      <c r="E148" t="s">
+        <v>3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>280</v>
+      </c>
+      <c r="B149" t="s">
+        <v>246</v>
+      </c>
+      <c r="C149" t="s">
+        <v>281</v>
+      </c>
+      <c r="D149" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
